--- a/data_format.xlsx
+++ b/data_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihohan/HOME/slam_team2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DB3138-AF36-9D4C-974A-257001191F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3A94AE-7A10-9242-A0D6-104E9A402B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="4420" windowWidth="30240" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Totational rmse</t>
+    <t>Rotational rmse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -454,8 +454,9 @@
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="15.1640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="10" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="15.83203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
